--- a/public/excel/book1.xlsx
+++ b/public/excel/book1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2220,7 +2220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
@@ -2236,9 +2236,6 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
@@ -2571,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="M348" sqref="M348"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2592,57 +2589,57 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3483,904 +3480,904 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.5">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5">
-      <c r="A88" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B88" s="14" t="s">
+      <c r="A88" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.5">
-      <c r="A89" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B89" s="14" t="s">
+      <c r="A89" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="14" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.5">
-      <c r="A90" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B90" s="14" t="s">
+      <c r="A90" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="14" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5">
-      <c r="A91" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B91" s="14" t="s">
+      <c r="A91" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="14" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.5">
-      <c r="A92" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B92" s="14" t="s">
+      <c r="A92" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="14" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.5">
-      <c r="A93" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B93" s="14" t="s">
+      <c r="A93" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="14" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5">
-      <c r="A94" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B94" s="14" t="s">
+      <c r="A94" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5">
-      <c r="A95" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B95" s="14" t="s">
+      <c r="A95" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5">
-      <c r="A96" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B96" s="14" t="s">
+      <c r="A96" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.5">
-      <c r="A97" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B97" s="14" t="s">
+      <c r="A97" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B97" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="14" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5">
-      <c r="A98" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B98" s="14" t="s">
+      <c r="A98" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="14" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.5">
-      <c r="A99" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B99" s="14" t="s">
+      <c r="A99" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="14" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5">
-      <c r="A100" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B100" s="14" t="s">
+      <c r="A100" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.5">
-      <c r="A101" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B101" s="14" t="s">
+      <c r="A101" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16.5">
-      <c r="A102" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B102" s="14" t="s">
+      <c r="A102" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="16.5">
-      <c r="A103" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B103" s="14" t="s">
+      <c r="A103" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="14" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.5">
-      <c r="A104" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B104" s="14" t="s">
+      <c r="A104" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="14" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16.5">
-      <c r="A105" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B105" s="14" t="s">
+      <c r="A105" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="14" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.5">
-      <c r="A106" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B106" s="14" t="s">
+      <c r="A106" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.5">
-      <c r="A107" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B107" s="14" t="s">
+      <c r="A107" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16.5">
-      <c r="A108" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B108" s="14" t="s">
+      <c r="A108" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B108" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16.5">
-      <c r="A109" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B109" s="14" t="s">
+      <c r="A109" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="14" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="16.5">
-      <c r="A110" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B110" s="14" t="s">
+      <c r="A110" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16.5">
-      <c r="A111" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B111" s="14" t="s">
+      <c r="A111" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.5">
-      <c r="A112" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B112" s="14" t="s">
+      <c r="A112" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="14" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16.5">
-      <c r="A113" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B113" s="14" t="s">
+      <c r="A113" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16.5">
-      <c r="A114" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B114" s="14" t="s">
+      <c r="A114" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16.5">
-      <c r="A115" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B115" s="14" t="s">
+      <c r="A115" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B115" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5">
-      <c r="A116" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B116" s="14" t="s">
+      <c r="A116" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16.5">
-      <c r="A117" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B117" s="14" t="s">
+      <c r="A117" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B117" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="14" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="16.5">
-      <c r="A118" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B118" s="14" t="s">
+      <c r="A118" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="14" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="16.5">
-      <c r="A119" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B119" s="14" t="s">
+      <c r="A119" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B119" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="14" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16.5">
-      <c r="A120" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B120" s="14" t="s">
+      <c r="A120" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="14" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.5">
-      <c r="A121" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B121" s="14" t="s">
+      <c r="A121" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16.5">
-      <c r="A122" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B122" s="14" t="s">
+      <c r="A122" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="14" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16.5">
-      <c r="A123" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B123" s="14" t="s">
+      <c r="A123" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="14" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16.5">
-      <c r="A124" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B124" s="14" t="s">
+      <c r="A124" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="14" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.5">
-      <c r="A125" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B125" s="14" t="s">
+      <c r="A125" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="14" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="16.5">
-      <c r="A126" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B126" s="14" t="s">
+      <c r="A126" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16.5">
-      <c r="A127" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B127" s="14" t="s">
+      <c r="A127" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="14" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="16.5">
-      <c r="A128" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B128" s="14" t="s">
+      <c r="A128" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.5">
-      <c r="A129" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B129" s="14" t="s">
+      <c r="A129" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B129" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="14" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.5">
-      <c r="A130" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B130" s="14" t="s">
+      <c r="A130" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="14" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5">
-      <c r="A131" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B131" s="14" t="s">
+      <c r="A131" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B131" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5">
-      <c r="A132" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B132" s="14" t="s">
+      <c r="A132" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B132" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5">
-      <c r="A133" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B133" s="14" t="s">
+      <c r="A133" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B133" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="14" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5">
-      <c r="A134" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B134" s="14" t="s">
+      <c r="A134" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B134" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="14" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5">
-      <c r="A135" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B135" s="14" t="s">
+      <c r="A135" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16.5">
-      <c r="A136" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B136" s="14" t="s">
+      <c r="A136" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B136" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="14" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.5">
-      <c r="A137" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B137" s="14" t="s">
+      <c r="A137" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.5">
-      <c r="A138" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B138" s="14" t="s">
+      <c r="A138" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="16.5">
-      <c r="A139" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B139" s="14" t="s">
+      <c r="A139" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5">
-      <c r="A140" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B140" s="14" t="s">
+      <c r="A140" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.5">
-      <c r="A141" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B141" s="14" t="s">
+      <c r="A141" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B141" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="14" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.5">
-      <c r="A142" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B142" s="14" t="s">
+      <c r="A142" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B142" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.5">
-      <c r="A143" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B143" s="14" t="s">
+      <c r="A143" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B143" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16.5">
-      <c r="A144" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B144" s="14" t="s">
+      <c r="A144" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16.5">
-      <c r="A145" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B145" s="14" t="s">
+      <c r="A145" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="14" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.5">
-      <c r="A146" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B146" s="14" t="s">
+      <c r="A146" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16.5">
-      <c r="A147" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B147" s="14" t="s">
+      <c r="A147" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="14" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16.5">
-      <c r="A148" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B148" s="14" t="s">
+      <c r="A148" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B148" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.5">
-      <c r="A149" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B149" s="14" t="s">
+      <c r="A149" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="14" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.5">
-      <c r="A150" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B150" s="14" t="s">
+      <c r="A150" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.5">
-      <c r="A151" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B151" s="14" t="s">
+      <c r="A151" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.5">
-      <c r="A152" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B152" s="14" t="s">
+      <c r="A152" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B152" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16.5">
-      <c r="A153" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B153" s="14" t="s">
+      <c r="A153" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="14" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.5">
-      <c r="A154" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B154" s="14" t="s">
+      <c r="A154" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16.5">
-      <c r="A155" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B155" s="14" t="s">
+      <c r="A155" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16.5">
-      <c r="A156" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B156" s="14" t="s">
+      <c r="A156" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C156" s="14" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16.5">
-      <c r="A157" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B157" s="14" t="s">
+      <c r="A157" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="14" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16.5">
-      <c r="A158" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B158" s="14" t="s">
+      <c r="A158" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="14" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5">
-      <c r="A159" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B159" s="14" t="s">
+      <c r="A159" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B159" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="14" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="16.5">
-      <c r="A160" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B160" s="14" t="s">
+      <c r="A160" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C160" s="14" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="16.5">
-      <c r="A161" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B161" s="14" t="s">
+      <c r="A161" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C161" s="14" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16.5">
-      <c r="A162" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B162" s="14" t="s">
+      <c r="A162" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B162" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C162" s="14" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="16.5">
-      <c r="A163" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B163" s="14" t="s">
+      <c r="A163" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B163" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="16.5">
-      <c r="A164" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B164" s="14" t="s">
+      <c r="A164" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B164" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="14" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4561,376 +4558,376 @@
       </c>
     </row>
     <row r="181" spans="1:3" ht="16.5">
-      <c r="A181" s="16" t="s">
+      <c r="A181" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="16.5">
-      <c r="A182" s="16" t="s">
+      <c r="A182" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B182" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="16.5">
-      <c r="A183" s="16" t="s">
+      <c r="A183" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="16" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="16.5">
-      <c r="A184" s="16" t="s">
+      <c r="A184" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="16.5">
-      <c r="A185" s="16" t="s">
+      <c r="A185" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B185" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="16.5">
-      <c r="A186" s="16" t="s">
+      <c r="A186" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="16" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="16.5">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="16" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="16.5">
-      <c r="A188" s="16" t="s">
+      <c r="A188" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="B188" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="16.5">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="16" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="16.5">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="16" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="16.5">
-      <c r="A191" s="16" t="s">
+      <c r="A191" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B191" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="16" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="16.5">
-      <c r="A192" s="16" t="s">
+      <c r="A192" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B192" s="16" t="s">
+      <c r="B192" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="16" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="16.5">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B193" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="16" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="16.5">
-      <c r="A194" s="16" t="s">
+      <c r="A194" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B194" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="16" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16.5">
-      <c r="A195" s="16" t="s">
+      <c r="A195" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B195" s="16" t="s">
+      <c r="B195" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="16" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="16.5">
-      <c r="A196" s="16" t="s">
+      <c r="A196" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B196" s="16" t="s">
+      <c r="B196" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="16" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="16.5">
-      <c r="A197" s="16" t="s">
+      <c r="A197" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B197" s="16" t="s">
+      <c r="B197" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="16" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="16.5">
-      <c r="A198" s="16" t="s">
+      <c r="A198" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B198" s="16" t="s">
+      <c r="B198" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="16" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="16.5">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B199" s="16" t="s">
+      <c r="B199" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="16" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="16.5">
-      <c r="A200" s="16" t="s">
+      <c r="A200" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B200" s="16" t="s">
+      <c r="B200" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="16" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="16.5">
-      <c r="A201" s="16" t="s">
+      <c r="A201" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B201" s="16" t="s">
+      <c r="B201" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="16" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="16.5">
-      <c r="A202" s="16" t="s">
+      <c r="A202" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="B202" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="16" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="16.5">
-      <c r="A203" s="16" t="s">
+      <c r="A203" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B203" s="16" t="s">
+      <c r="B203" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="16" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="16.5">
-      <c r="A204" s="16" t="s">
+      <c r="A204" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="B204" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16.5">
-      <c r="A205" s="16" t="s">
+      <c r="A205" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B205" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="16" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.5">
-      <c r="A206" s="16" t="s">
+      <c r="A206" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="16" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="16.5">
-      <c r="A207" s="16" t="s">
+      <c r="A207" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B207" s="16" t="s">
+      <c r="B207" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="16" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="16.5">
-      <c r="A208" s="16" t="s">
+      <c r="A208" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B208" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="16" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="16.5">
-      <c r="A209" s="16" t="s">
+      <c r="A209" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B209" s="16" t="s">
+      <c r="B209" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="16" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5">
-      <c r="A210" s="16" t="s">
+      <c r="A210" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B210" s="16" t="s">
+      <c r="B210" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="16" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="16.5">
-      <c r="A211" s="16" t="s">
+      <c r="A211" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B211" s="16" t="s">
+      <c r="B211" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="16" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="16.5">
-      <c r="A212" s="16" t="s">
+      <c r="A212" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B212" s="16" t="s">
+      <c r="B212" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="16" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="16.5">
-      <c r="A213" s="16" t="s">
+      <c r="A213" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="B213" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="16" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="16.5">
-      <c r="A214" s="16" t="s">
+      <c r="A214" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B214" s="16" t="s">
+      <c r="B214" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="16" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4941,7 +4938,7 @@
       <c r="B215" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="6" t="s">
         <v>450</v>
       </c>
     </row>
@@ -4952,7 +4949,7 @@
       <c r="B216" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="6" t="s">
         <v>451</v>
       </c>
     </row>
@@ -4963,7 +4960,7 @@
       <c r="B217" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="6" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4974,7 +4971,7 @@
       <c r="B218" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="6" t="s">
         <v>453</v>
       </c>
     </row>
@@ -4985,7 +4982,7 @@
       <c r="B219" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="6" t="s">
         <v>454</v>
       </c>
     </row>
@@ -4996,7 +4993,7 @@
       <c r="B220" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="6" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5007,7 +5004,7 @@
       <c r="B221" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="6" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5018,7 +5015,7 @@
       <c r="B222" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="6" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5029,7 +5026,7 @@
       <c r="B223" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="6" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5040,7 +5037,7 @@
       <c r="B224" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="6" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5051,7 +5048,7 @@
       <c r="B225" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C225" s="6" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5062,7 +5059,7 @@
       <c r="B226" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="6" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5073,7 +5070,7 @@
       <c r="B227" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" s="6" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5084,7 +5081,7 @@
       <c r="B228" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" s="6" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5095,7 +5092,7 @@
       <c r="B229" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="6" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5106,7 +5103,7 @@
       <c r="B230" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="6" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5117,7 +5114,7 @@
       <c r="B231" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="6" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5128,7 +5125,7 @@
       <c r="B232" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="6" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5139,7 +5136,7 @@
       <c r="B233" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="6" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5150,7 +5147,7 @@
       <c r="B234" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="6" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5161,7 +5158,7 @@
       <c r="B235" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="6" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5172,7 +5169,7 @@
       <c r="B236" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C236" s="6" t="s">
         <v>471</v>
       </c>
     </row>
@@ -5183,7 +5180,7 @@
       <c r="B237" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C237" s="6" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5194,7 +5191,7 @@
       <c r="B238" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="6" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5205,7 +5202,7 @@
       <c r="B239" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="6" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5216,7 +5213,7 @@
       <c r="B240" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="6" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5227,7 +5224,7 @@
       <c r="B241" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C241" s="6" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5238,7 +5235,7 @@
       <c r="B242" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="6" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5249,7 +5246,7 @@
       <c r="B243" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C243" s="6" t="s">
         <v>478</v>
       </c>
     </row>
@@ -5260,7 +5257,7 @@
       <c r="B244" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C244" s="6" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5271,7 +5268,7 @@
       <c r="B245" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" s="6" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5282,7 +5279,7 @@
       <c r="B246" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C246" s="6" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5293,7 +5290,7 @@
       <c r="B247" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="6" t="s">
         <v>482</v>
       </c>
     </row>
@@ -5304,7 +5301,7 @@
       <c r="B248" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C248" s="6" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5315,7 +5312,7 @@
       <c r="B249" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C249" s="6" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5326,7 +5323,7 @@
       <c r="B250" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C250" s="6" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5337,7 +5334,7 @@
       <c r="B251" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C251" s="6" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5348,7 +5345,7 @@
       <c r="B252" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C252" s="6" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5359,7 +5356,7 @@
       <c r="B253" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="6" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5367,10 +5364,10 @@
       <c r="A254" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="6" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5381,7 +5378,7 @@
       <c r="B255" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C255" s="6" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5392,7 +5389,7 @@
       <c r="B256" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C256" s="6" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5403,7 +5400,7 @@
       <c r="B257" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C257" s="6" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5414,7 +5411,7 @@
       <c r="B258" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C258" s="6" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5425,7 +5422,7 @@
       <c r="B259" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" s="6" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5436,7 +5433,7 @@
       <c r="B260" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C260" s="6" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5447,7 +5444,7 @@
       <c r="B261" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C261" s="6" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5458,7 +5455,7 @@
       <c r="B262" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C262" s="6" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5469,7 +5466,7 @@
       <c r="B263" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="6" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5480,7 +5477,7 @@
       <c r="B264" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C264" s="6" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5491,7 +5488,7 @@
       <c r="B265" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="6" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5502,7 +5499,7 @@
       <c r="B266" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="6" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5513,7 +5510,7 @@
       <c r="B267" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" s="6" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5524,7 +5521,7 @@
       <c r="B268" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" s="6" t="s">
         <v>683</v>
       </c>
     </row>
@@ -5535,7 +5532,7 @@
       <c r="B269" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" s="6" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5546,7 +5543,7 @@
       <c r="B270" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" s="6" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5557,7 +5554,7 @@
       <c r="B271" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="6" t="s">
         <v>505</v>
       </c>
     </row>
@@ -5568,7 +5565,7 @@
       <c r="B272" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="6" t="s">
         <v>506</v>
       </c>
     </row>
@@ -5579,7 +5576,7 @@
       <c r="B273" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C273" s="6" t="s">
         <v>507</v>
       </c>
     </row>
@@ -5590,7 +5587,7 @@
       <c r="B274" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="6" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5601,7 +5598,7 @@
       <c r="B275" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C275" s="6" t="s">
         <v>509</v>
       </c>
     </row>
@@ -5612,7 +5609,7 @@
       <c r="B276" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C276" s="6" t="s">
         <v>684</v>
       </c>
     </row>
@@ -5623,7 +5620,7 @@
       <c r="B277" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="6" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5634,7 +5631,7 @@
       <c r="B278" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="6" t="s">
         <v>511</v>
       </c>
     </row>
@@ -5645,7 +5642,7 @@
       <c r="B279" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="6" t="s">
         <v>512</v>
       </c>
     </row>
@@ -5656,7 +5653,7 @@
       <c r="B280" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C280" s="6" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5667,7 +5664,7 @@
       <c r="B281" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="6" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5678,7 +5675,7 @@
       <c r="B282" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="6" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5689,7 +5686,7 @@
       <c r="B283" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C283" s="6" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5700,7 +5697,7 @@
       <c r="B284" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="6" t="s">
         <v>517</v>
       </c>
     </row>
@@ -5711,7 +5708,7 @@
       <c r="B285" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C285" s="6" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5722,7 +5719,7 @@
       <c r="B286" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="6" t="s">
         <v>519</v>
       </c>
     </row>
@@ -5733,7 +5730,7 @@
       <c r="B287" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="6" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5744,7 +5741,7 @@
       <c r="B288" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="6" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5755,7 +5752,7 @@
       <c r="B289" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="6" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5766,7 +5763,7 @@
       <c r="B290" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" s="6" t="s">
         <v>523</v>
       </c>
     </row>
@@ -5777,7 +5774,7 @@
       <c r="B291" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="6" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5788,7 +5785,7 @@
       <c r="B292" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C292" s="6" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5799,7 +5796,7 @@
       <c r="B293" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C293" s="6" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5810,7 +5807,7 @@
       <c r="B294" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C294" s="6" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5821,7 +5818,7 @@
       <c r="B295" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="6" t="s">
         <v>528</v>
       </c>
     </row>
@@ -5832,7 +5829,7 @@
       <c r="B296" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="6" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5843,7 +5840,7 @@
       <c r="B297" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="6" t="s">
         <v>692</v>
       </c>
     </row>
@@ -5854,7 +5851,7 @@
       <c r="B298" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="6" t="s">
         <v>530</v>
       </c>
     </row>
@@ -5865,7 +5862,7 @@
       <c r="B299" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="6" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5876,7 +5873,7 @@
       <c r="B300" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="6" t="s">
         <v>690</v>
       </c>
     </row>
@@ -5887,7 +5884,7 @@
       <c r="B301" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="6" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5898,7 +5895,7 @@
       <c r="B302" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C302" s="6" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5909,7 +5906,7 @@
       <c r="B303" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="6" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5920,7 +5917,7 @@
       <c r="B304" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C304" s="6" t="s">
         <v>685</v>
       </c>
     </row>
@@ -5931,7 +5928,7 @@
       <c r="B305" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" s="6" t="s">
         <v>686</v>
       </c>
     </row>
@@ -5942,7 +5939,7 @@
       <c r="B306" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" s="6" t="s">
         <v>687</v>
       </c>
     </row>
@@ -5953,7 +5950,7 @@
       <c r="B307" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="6" t="s">
         <v>688</v>
       </c>
     </row>
@@ -5964,7 +5961,7 @@
       <c r="B308" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C308" s="6" t="s">
         <v>689</v>
       </c>
     </row>
@@ -5975,7 +5972,7 @@
       <c r="B309" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C309" s="6" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5986,7 +5983,7 @@
       <c r="B310" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C310" s="6" t="s">
         <v>604</v>
       </c>
     </row>
@@ -5997,7 +5994,7 @@
       <c r="B311" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="6" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6008,7 +6005,7 @@
       <c r="B312" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C312" s="6" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6019,7 +6016,7 @@
       <c r="B313" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="6" t="s">
         <v>538</v>
       </c>
     </row>
@@ -6030,7 +6027,7 @@
       <c r="B314" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="6" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6041,7 +6038,7 @@
       <c r="B315" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C315" s="6" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6052,7 +6049,7 @@
       <c r="B316" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C316" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6063,7 +6060,7 @@
       <c r="B317" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C317" s="6" t="s">
         <v>691</v>
       </c>
     </row>
@@ -6074,271 +6071,271 @@
       <c r="B318" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C318" s="6" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="16.5">
-      <c r="A319" s="8" t="s">
+      <c r="A319" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B319" s="8" t="s">
+      <c r="B319" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="C319" s="9" t="s">
+      <c r="C319" s="8" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="16.5">
-      <c r="A320" s="8" t="s">
+      <c r="A320" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B320" s="8" t="s">
+      <c r="B320" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C320" s="9" t="s">
+      <c r="C320" s="8" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="16.5">
-      <c r="A321" s="8" t="s">
+      <c r="A321" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B321" s="8" t="s">
+      <c r="B321" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="C321" s="9" t="s">
+      <c r="C321" s="8" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="16.5">
-      <c r="A322" s="8" t="s">
+      <c r="A322" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B322" s="8" t="s">
+      <c r="B322" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="C322" s="9" t="s">
+      <c r="C322" s="8" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="16.5">
-      <c r="A323" s="8" t="s">
+      <c r="A323" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B323" s="8" t="s">
+      <c r="B323" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C323" s="9" t="s">
+      <c r="C323" s="8" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="16.5">
-      <c r="A324" s="8" t="s">
+      <c r="A324" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B324" s="8" t="s">
+      <c r="B324" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="C324" s="9" t="s">
+      <c r="C324" s="8" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="16.5">
-      <c r="A325" s="8" t="s">
+      <c r="A325" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B325" s="8" t="s">
+      <c r="B325" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C325" s="9" t="s">
+      <c r="C325" s="8" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="16.5">
-      <c r="A326" s="8" t="s">
+      <c r="A326" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B326" s="8" t="s">
+      <c r="B326" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C326" s="9" t="s">
+      <c r="C326" s="8" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="16.5">
-      <c r="A327" s="8" t="s">
+      <c r="A327" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B327" s="8" t="s">
+      <c r="B327" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="C327" s="9" t="s">
+      <c r="C327" s="8" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="16.5">
-      <c r="A328" s="8" t="s">
+      <c r="A328" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B328" s="8" t="s">
+      <c r="B328" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C328" s="8" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="16.5">
-      <c r="A329" s="8" t="s">
+      <c r="A329" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B329" s="8" t="s">
+      <c r="B329" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="C329" s="9" t="s">
+      <c r="C329" s="8" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="16.5">
-      <c r="A330" s="8" t="s">
+      <c r="A330" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B330" s="8" t="s">
+      <c r="B330" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C330" s="9" t="s">
+      <c r="C330" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="16.5">
-      <c r="A331" s="8" t="s">
+      <c r="A331" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B331" s="8" t="s">
+      <c r="B331" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C331" s="9" t="s">
+      <c r="C331" s="8" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="16.5">
-      <c r="A332" s="8" t="s">
+      <c r="A332" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B332" s="8" t="s">
+      <c r="B332" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="C332" s="9" t="s">
+      <c r="C332" s="8" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="16.5">
-      <c r="A333" s="8" t="s">
+      <c r="A333" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B333" s="8" t="s">
+      <c r="B333" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C333" s="9" t="s">
+      <c r="C333" s="8" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="16.5">
-      <c r="A334" s="8" t="s">
+      <c r="A334" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B334" s="8" t="s">
+      <c r="B334" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C334" s="9" t="s">
+      <c r="C334" s="8" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="16.5">
-      <c r="A335" s="8" t="s">
+      <c r="A335" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B335" s="8" t="s">
+      <c r="B335" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C335" s="9" t="s">
+      <c r="C335" s="8" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="16.5">
-      <c r="A336" s="8" t="s">
+      <c r="A336" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B336" s="8" t="s">
+      <c r="B336" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="C336" s="9" t="s">
+      <c r="C336" s="8" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="16.5">
-      <c r="A337" s="8" t="s">
+      <c r="A337" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B337" s="8" t="s">
+      <c r="B337" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="C337" s="9" t="s">
+      <c r="C337" s="8" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="16.5">
-      <c r="A338" s="8" t="s">
+      <c r="A338" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B338" s="8" t="s">
+      <c r="B338" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C338" s="9" t="s">
+      <c r="C338" s="8" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="16.5">
-      <c r="A339" s="8" t="s">
+      <c r="A339" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B339" s="8" t="s">
+      <c r="B339" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="C339" s="9" t="s">
+      <c r="C339" s="8" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="16.5">
-      <c r="A340" s="8" t="s">
+      <c r="A340" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B340" s="8" t="s">
+      <c r="B340" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C340" s="8" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="16.5">
-      <c r="A341" s="8" t="s">
+      <c r="A341" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B341" s="8" t="s">
+      <c r="B341" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C341" s="8" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="16.5">
-      <c r="A342" s="8" t="s">
+      <c r="A342" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B342" s="8" t="s">
+      <c r="B342" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="C342" s="8" t="s">
         <v>693</v>
       </c>
     </row>

--- a/public/excel/book1.xlsx
+++ b/public/excel/book1.xlsx
@@ -2092,10 +2092,10 @@
     <t>محمد السيد مصطفى محمد حسين مكرر 1</t>
   </si>
   <si>
-    <t>أشرف وديع رزق مكرر 1</t>
-  </si>
-  <si>
     <t>احمد رشدى معروف مكرر 1</t>
+  </si>
+  <si>
+    <t>أشرف وديع رزق مكرر1</t>
   </si>
 </sst>
 </file>
@@ -2568,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5841,7 +5841,7 @@
         <v>427</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="16.5">
@@ -6336,7 +6336,7 @@
         <v>566</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/book1.xlsx
+++ b/public/excel/book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="8265"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -988,9 +988,6 @@
     <t>أحمد أحمد لطفى حسونه</t>
   </si>
   <si>
-    <t>أحمد رشدى معروف</t>
-  </si>
-  <si>
     <t>على السيد على المصيلحى</t>
   </si>
   <si>
@@ -1792,9 +1789,6 @@
     <t>27دّ ب</t>
   </si>
   <si>
-    <t>د شدة</t>
-  </si>
-  <si>
     <t>محمد سمير محمد طلع</t>
   </si>
   <si>
@@ -1828,240 +1822,6 @@
     <t xml:space="preserve"> خالد أحمد داود ا</t>
   </si>
   <si>
-    <t xml:space="preserve"> خالد احمد داود ال</t>
-  </si>
-  <si>
-    <t>01د شدة</t>
-  </si>
-  <si>
-    <t>02د شدة</t>
-  </si>
-  <si>
-    <t>03د شدة</t>
-  </si>
-  <si>
-    <t>04د شدة</t>
-  </si>
-  <si>
-    <t>05د شدة</t>
-  </si>
-  <si>
-    <t>06د شدة</t>
-  </si>
-  <si>
-    <t>07د شدة</t>
-  </si>
-  <si>
-    <t>08د شدة</t>
-  </si>
-  <si>
-    <t>09د شدة</t>
-  </si>
-  <si>
-    <t>10د شدة</t>
-  </si>
-  <si>
-    <t>11د شدة</t>
-  </si>
-  <si>
-    <t>12د شدة</t>
-  </si>
-  <si>
-    <t>13د شدة</t>
-  </si>
-  <si>
-    <t>14د شدة</t>
-  </si>
-  <si>
-    <t>17د شدة</t>
-  </si>
-  <si>
-    <t>18د شدة</t>
-  </si>
-  <si>
-    <t>19د شدة</t>
-  </si>
-  <si>
-    <t>20د شدة</t>
-  </si>
-  <si>
-    <t>21د شدة</t>
-  </si>
-  <si>
-    <t>22د شدة</t>
-  </si>
-  <si>
-    <t>23د شدة</t>
-  </si>
-  <si>
-    <t>24د شدة</t>
-  </si>
-  <si>
-    <t>25د شدة</t>
-  </si>
-  <si>
-    <t>26د شدة</t>
-  </si>
-  <si>
-    <t>27د شدة</t>
-  </si>
-  <si>
-    <t>28د شدة</t>
-  </si>
-  <si>
-    <t>29د شدة</t>
-  </si>
-  <si>
-    <t>30د شدة</t>
-  </si>
-  <si>
-    <t>31د شدة</t>
-  </si>
-  <si>
-    <t>32د شدة</t>
-  </si>
-  <si>
-    <t>33د شدة</t>
-  </si>
-  <si>
-    <t>34د شدة</t>
-  </si>
-  <si>
-    <t>35د شدة</t>
-  </si>
-  <si>
-    <t>36د شدة</t>
-  </si>
-  <si>
-    <t>37د شدة</t>
-  </si>
-  <si>
-    <t>38د شدة</t>
-  </si>
-  <si>
-    <t>39د شدة</t>
-  </si>
-  <si>
-    <t>40د شدة</t>
-  </si>
-  <si>
-    <t>41د شدة</t>
-  </si>
-  <si>
-    <t>42د شدة</t>
-  </si>
-  <si>
-    <t>46د شدة</t>
-  </si>
-  <si>
-    <t>47د شدة</t>
-  </si>
-  <si>
-    <t>48د شدة</t>
-  </si>
-  <si>
-    <t>49د شدة</t>
-  </si>
-  <si>
-    <t>50د شدة</t>
-  </si>
-  <si>
-    <t>51د شدة</t>
-  </si>
-  <si>
-    <t>52د شدة</t>
-  </si>
-  <si>
-    <t>53د شدة</t>
-  </si>
-  <si>
-    <t>54د شدة</t>
-  </si>
-  <si>
-    <t>55د شدة</t>
-  </si>
-  <si>
-    <t>56د شدة</t>
-  </si>
-  <si>
-    <t>57د شدة</t>
-  </si>
-  <si>
-    <t>58د شدة</t>
-  </si>
-  <si>
-    <t>59د شدة</t>
-  </si>
-  <si>
-    <t>60د شدة</t>
-  </si>
-  <si>
-    <t>61د شدة</t>
-  </si>
-  <si>
-    <t>62د شدة</t>
-  </si>
-  <si>
-    <t>63د شدة</t>
-  </si>
-  <si>
-    <t>64د شدة</t>
-  </si>
-  <si>
-    <t>66د شدة</t>
-  </si>
-  <si>
-    <t>68د شدة</t>
-  </si>
-  <si>
-    <t>69د شدة</t>
-  </si>
-  <si>
-    <t>70د شدة</t>
-  </si>
-  <si>
-    <t>71د شدة</t>
-  </si>
-  <si>
-    <t>72د شدة</t>
-  </si>
-  <si>
-    <t>73د شدة</t>
-  </si>
-  <si>
-    <t>74د شدة</t>
-  </si>
-  <si>
-    <t>75د شدة</t>
-  </si>
-  <si>
-    <t>76د شدة</t>
-  </si>
-  <si>
-    <t>77د شدة</t>
-  </si>
-  <si>
-    <t>15د شدة</t>
-  </si>
-  <si>
-    <t>16د شدة</t>
-  </si>
-  <si>
-    <t>43د شدة</t>
-  </si>
-  <si>
-    <t>44د شدة</t>
-  </si>
-  <si>
-    <t>45د شدة</t>
-  </si>
-  <si>
-    <t>65د شدة</t>
-  </si>
-  <si>
-    <t>67د شدة</t>
-  </si>
-  <si>
     <t>محمد أحمد لطفى حسون</t>
   </si>
   <si>
@@ -2092,10 +1852,250 @@
     <t>محمد السيد مصطفى محمد حسين مكرر 1</t>
   </si>
   <si>
-    <t>احمد رشدى معروف مكرر 1</t>
-  </si>
-  <si>
     <t>أشرف وديع رزق مكرر1</t>
+  </si>
+  <si>
+    <t>خالد احمد داود ال</t>
+  </si>
+  <si>
+    <t>احمد رشدى معروف مكرر1</t>
+  </si>
+  <si>
+    <t>احمد رشدى معروف</t>
+  </si>
+  <si>
+    <t>01د معدل</t>
+  </si>
+  <si>
+    <t>د معدل</t>
+  </si>
+  <si>
+    <t>02د معدل</t>
+  </si>
+  <si>
+    <t>03د معدل</t>
+  </si>
+  <si>
+    <t>04د معدل</t>
+  </si>
+  <si>
+    <t>05د معدل</t>
+  </si>
+  <si>
+    <t>06د معدل</t>
+  </si>
+  <si>
+    <t>07د معدل</t>
+  </si>
+  <si>
+    <t>08د معدل</t>
+  </si>
+  <si>
+    <t>09د معدل</t>
+  </si>
+  <si>
+    <t>10د معدل</t>
+  </si>
+  <si>
+    <t>11د معدل</t>
+  </si>
+  <si>
+    <t>12د معدل</t>
+  </si>
+  <si>
+    <t>13د معدل</t>
+  </si>
+  <si>
+    <t>14د معدل</t>
+  </si>
+  <si>
+    <t>15د معدل</t>
+  </si>
+  <si>
+    <t>16د معدل</t>
+  </si>
+  <si>
+    <t>17د معدل</t>
+  </si>
+  <si>
+    <t>18د معدل</t>
+  </si>
+  <si>
+    <t>19د معدل</t>
+  </si>
+  <si>
+    <t>20د معدل</t>
+  </si>
+  <si>
+    <t>21د معدل</t>
+  </si>
+  <si>
+    <t>22د معدل</t>
+  </si>
+  <si>
+    <t>23د معدل</t>
+  </si>
+  <si>
+    <t>24د معدل</t>
+  </si>
+  <si>
+    <t>25د معدل</t>
+  </si>
+  <si>
+    <t>26د معدل</t>
+  </si>
+  <si>
+    <t>27د معدل</t>
+  </si>
+  <si>
+    <t>28د معدل</t>
+  </si>
+  <si>
+    <t>29د معدل</t>
+  </si>
+  <si>
+    <t>30د معدل</t>
+  </si>
+  <si>
+    <t>31د معدل</t>
+  </si>
+  <si>
+    <t>32د معدل</t>
+  </si>
+  <si>
+    <t>33د معدل</t>
+  </si>
+  <si>
+    <t>34د معدل</t>
+  </si>
+  <si>
+    <t>35د معدل</t>
+  </si>
+  <si>
+    <t>36د معدل</t>
+  </si>
+  <si>
+    <t>37د معدل</t>
+  </si>
+  <si>
+    <t>38د معدل</t>
+  </si>
+  <si>
+    <t>39د معدل</t>
+  </si>
+  <si>
+    <t>40د معدل</t>
+  </si>
+  <si>
+    <t>41د معدل</t>
+  </si>
+  <si>
+    <t>42د معدل</t>
+  </si>
+  <si>
+    <t>43د معدل</t>
+  </si>
+  <si>
+    <t>44د معدل</t>
+  </si>
+  <si>
+    <t>45د معدل</t>
+  </si>
+  <si>
+    <t>46د معدل</t>
+  </si>
+  <si>
+    <t>47د معدل</t>
+  </si>
+  <si>
+    <t>48د معدل</t>
+  </si>
+  <si>
+    <t>49د معدل</t>
+  </si>
+  <si>
+    <t>50د معدل</t>
+  </si>
+  <si>
+    <t>51د معدل</t>
+  </si>
+  <si>
+    <t>52د معدل</t>
+  </si>
+  <si>
+    <t>53د معدل</t>
+  </si>
+  <si>
+    <t>54د معدل</t>
+  </si>
+  <si>
+    <t>55د معدل</t>
+  </si>
+  <si>
+    <t>56د معدل</t>
+  </si>
+  <si>
+    <t>57د معدل</t>
+  </si>
+  <si>
+    <t>58د معدل</t>
+  </si>
+  <si>
+    <t>59د معدل</t>
+  </si>
+  <si>
+    <t>60د معدل</t>
+  </si>
+  <si>
+    <t>61د معدل</t>
+  </si>
+  <si>
+    <t>62د معدل</t>
+  </si>
+  <si>
+    <t>63د معدل</t>
+  </si>
+  <si>
+    <t>64د معدل</t>
+  </si>
+  <si>
+    <t>65د معدل</t>
+  </si>
+  <si>
+    <t>66د معدل</t>
+  </si>
+  <si>
+    <t>67د معدل</t>
+  </si>
+  <si>
+    <t>68د معدل</t>
+  </si>
+  <si>
+    <t>69د معدل</t>
+  </si>
+  <si>
+    <t>70د معدل</t>
+  </si>
+  <si>
+    <t>71د معدل</t>
+  </si>
+  <si>
+    <t>72د معدل</t>
+  </si>
+  <si>
+    <t>73د معدل</t>
+  </si>
+  <si>
+    <t>74د معدل</t>
+  </si>
+  <si>
+    <t>75د معدل</t>
+  </si>
+  <si>
+    <t>76د معدل</t>
+  </si>
+  <si>
+    <t>77د معدل</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2135,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2190,6 +2190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2220,7 +2226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
@@ -2268,6 +2274,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2568,12 +2577,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2893,7 +2904,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5">
@@ -3399,7 +3410,7 @@
         <v>147</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5">
@@ -3443,7 +3454,7 @@
         <v>151</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5">
@@ -3484,7 +3495,7 @@
         <v>203</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>204</v>
@@ -3534,848 +3545,848 @@
         <v>208</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.5">
+    <row r="88" spans="1:3" ht="33">
       <c r="A88" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16.5">
+    <row r="89" spans="1:3" ht="33">
       <c r="A89" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16.5">
+    <row r="90" spans="1:3" ht="33">
       <c r="A90" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.5">
+    <row r="91" spans="1:3" ht="33">
       <c r="A91" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5">
+    <row r="92" spans="1:3" ht="33">
       <c r="A92" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16.5">
+    <row r="93" spans="1:3" ht="33">
       <c r="A93" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16.5">
+    <row r="94" spans="1:3" ht="33">
       <c r="A94" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.5">
+    <row r="95" spans="1:3" ht="33">
       <c r="A95" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5">
+    <row r="96" spans="1:3" ht="33">
       <c r="A96" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.5">
+    <row r="97" spans="1:3" ht="33">
       <c r="A97" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16.5">
+    <row r="98" spans="1:3" ht="33">
       <c r="A98" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16.5">
+    <row r="99" spans="1:3" ht="33">
       <c r="A99" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.5">
+    <row r="100" spans="1:3" ht="33">
       <c r="A100" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16.5">
+    <row r="101" spans="1:3" ht="33">
       <c r="A101" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16.5">
+    <row r="102" spans="1:3" ht="33">
       <c r="A102" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16.5">
+    <row r="103" spans="1:3" ht="33">
       <c r="A103" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16.5">
+    <row r="104" spans="1:3" ht="33">
       <c r="A104" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.5">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="33">
       <c r="A105" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16.5">
+    <row r="106" spans="1:3" ht="33">
       <c r="A106" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16.5">
+    <row r="107" spans="1:3" ht="33">
       <c r="A107" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16.5">
+    <row r="108" spans="1:3" ht="33">
       <c r="A108" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16.5">
+    <row r="109" spans="1:3" ht="33">
       <c r="A109" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16.5">
+    <row r="110" spans="1:3" ht="33">
       <c r="A110" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="16.5">
+    <row r="111" spans="1:3" ht="33">
       <c r="A111" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16.5">
+    <row r="112" spans="1:3" ht="33">
       <c r="A112" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16.5">
+    <row r="113" spans="1:3" ht="33">
       <c r="A113" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16.5">
+    <row r="114" spans="1:3" ht="33">
       <c r="A114" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="16.5">
+    <row r="115" spans="1:3" ht="33">
       <c r="A115" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16.5">
+    <row r="116" spans="1:3" ht="33">
       <c r="A116" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16.5">
+    <row r="117" spans="1:3" ht="33">
       <c r="A117" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="16.5">
+    <row r="118" spans="1:3" ht="33">
       <c r="A118" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16.5">
+    <row r="119" spans="1:3" ht="33">
       <c r="A119" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16.5">
+    <row r="120" spans="1:3" ht="33">
       <c r="A120" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16.5">
+    <row r="121" spans="1:3" ht="33">
       <c r="A121" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="16.5">
+    <row r="122" spans="1:3" ht="33">
       <c r="A122" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="16.5">
+    <row r="123" spans="1:3" ht="33">
       <c r="A123" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16.5">
+    <row r="124" spans="1:3" ht="33">
       <c r="A124" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16.5">
+    <row r="125" spans="1:3" ht="33">
       <c r="A125" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="33">
       <c r="A126" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16.5">
+    <row r="127" spans="1:3" ht="33">
       <c r="A127" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16.5">
+    <row r="128" spans="1:3" ht="33">
       <c r="A128" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16.5">
+    <row r="129" spans="1:3" ht="33">
       <c r="A129" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="C129" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="33">
+      <c r="A130" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="33">
+      <c r="A131" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="C131" s="14" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16.5">
-      <c r="A130" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>677</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="16.5">
-      <c r="A131" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="16.5">
+    <row r="132" spans="1:3" ht="33">
       <c r="A132" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="C132" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="16.5">
+    <row r="133" spans="1:3" ht="33">
       <c r="A133" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16.5">
+    <row r="134" spans="1:3" ht="33">
       <c r="A134" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16.5">
+    <row r="135" spans="1:3" ht="33">
       <c r="A135" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16.5">
+    <row r="136" spans="1:3" ht="33">
       <c r="A136" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16.5">
+    <row r="137" spans="1:3" ht="33">
       <c r="A137" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16.5">
+    <row r="138" spans="1:3" ht="33">
       <c r="A138" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="16.5">
+    <row r="139" spans="1:3" ht="33">
       <c r="A139" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16.5">
+    <row r="140" spans="1:3" ht="33">
       <c r="A140" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16.5">
+    <row r="141" spans="1:3" ht="33">
       <c r="A141" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="16.5">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="33">
       <c r="A142" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16.5">
+    <row r="143" spans="1:3" ht="33">
       <c r="A143" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16.5">
+    <row r="144" spans="1:3" ht="33">
       <c r="A144" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16.5">
+    <row r="145" spans="1:3" ht="33">
       <c r="A145" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16.5">
+    <row r="146" spans="1:3" ht="33">
       <c r="A146" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16.5">
+    <row r="147" spans="1:3" ht="33">
       <c r="A147" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16.5">
+    <row r="148" spans="1:3" ht="33">
       <c r="A148" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16.5">
+    <row r="149" spans="1:3" ht="33">
       <c r="A149" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16.5">
+    <row r="150" spans="1:3" ht="33">
       <c r="A150" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16.5">
+    <row r="151" spans="1:3" ht="33">
       <c r="A151" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C151" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16.5">
+    <row r="152" spans="1:3" ht="33">
       <c r="A152" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16.5">
+    <row r="153" spans="1:3" ht="33">
       <c r="A153" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="16.5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="33">
       <c r="A154" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C154" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16.5">
+    <row r="155" spans="1:3" ht="33">
       <c r="A155" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="16.5">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="33">
       <c r="A156" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16.5">
+    <row r="157" spans="1:3" ht="33">
       <c r="A157" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="C157" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16.5">
+    <row r="158" spans="1:3" ht="33">
       <c r="A158" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="C158" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5">
+    <row r="159" spans="1:3" ht="33">
       <c r="A159" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="C159" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16.5">
+    <row r="160" spans="1:3" ht="33">
       <c r="A160" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="16.5">
+    <row r="161" spans="1:3" ht="33">
       <c r="A161" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16.5">
+    <row r="162" spans="1:3" ht="33">
       <c r="A162" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="16.5">
+    <row r="163" spans="1:3" ht="33">
       <c r="A163" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16.5">
+    <row r="164" spans="1:3" ht="33">
       <c r="A164" s="13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>277</v>
@@ -4697,7 +4708,7 @@
         <v>14</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>324</v>
+        <v>615</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="16.5">
@@ -4708,7 +4719,7 @@
         <v>15</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16.5">
@@ -4719,7 +4730,7 @@
         <v>16</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="16.5">
@@ -4730,7 +4741,7 @@
         <v>17</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>682</v>
+        <v>602</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="16.5">
@@ -4741,7 +4752,7 @@
         <v>18</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="16.5">
@@ -4752,7 +4763,7 @@
         <v>19</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="16.5">
@@ -4763,7 +4774,7 @@
         <v>20</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="16.5">
@@ -4774,7 +4785,7 @@
         <v>21</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="16.5">
@@ -4785,7 +4796,7 @@
         <v>22</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="16.5">
@@ -4796,7 +4807,7 @@
         <v>23</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="16.5">
@@ -4807,7 +4818,7 @@
         <v>24</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="16.5">
@@ -4818,7 +4829,7 @@
         <v>25</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16.5">
@@ -4829,7 +4840,7 @@
         <v>26</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.5">
@@ -4840,7 +4851,7 @@
         <v>27</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="16.5">
@@ -4851,7 +4862,7 @@
         <v>28</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="16.5">
@@ -4862,7 +4873,7 @@
         <v>29</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="16.5">
@@ -4873,7 +4884,7 @@
         <v>30</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5">
@@ -4884,7 +4895,7 @@
         <v>31</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="16.5">
@@ -4895,7 +4906,7 @@
         <v>32</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="16.5">
@@ -4906,7 +4917,7 @@
         <v>33</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="16.5">
@@ -4917,7 +4928,7 @@
         <v>34</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="16.5">
@@ -4928,1415 +4939,1415 @@
         <v>35</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="16.5">
       <c r="A215" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="16.5">
       <c r="A216" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="16.5">
       <c r="A217" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="16.5">
       <c r="A218" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="16.5">
       <c r="A219" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="16.5">
       <c r="A220" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5">
       <c r="A221" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="16.5">
       <c r="A222" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="16.5">
       <c r="A223" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="16.5">
       <c r="A224" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="16.5">
       <c r="A225" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="16.5">
       <c r="A226" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="16.5">
       <c r="A227" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="16.5">
       <c r="A228" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16.5">
       <c r="A229" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.5">
       <c r="A230" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="16.5">
       <c r="A231" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="16.5">
       <c r="A232" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="16.5">
       <c r="A233" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.5">
       <c r="A234" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="16.5">
       <c r="A235" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="16.5">
       <c r="A236" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="16.5">
       <c r="A237" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="16.5">
       <c r="A238" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="16.5">
       <c r="A239" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="16.5">
       <c r="A240" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="16.5">
       <c r="A241" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="16.5">
       <c r="A242" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="16.5">
       <c r="A243" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="16.5">
       <c r="A244" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="16.5">
       <c r="A245" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="16.5">
       <c r="A246" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="16.5">
       <c r="A247" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="16.5">
       <c r="A248" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="16.5">
       <c r="A249" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="16.5">
       <c r="A250" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="16.5">
       <c r="A251" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="16.5">
       <c r="A252" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="16.5">
       <c r="A253" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="16.5">
       <c r="A254" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="16.5">
       <c r="A255" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="16.5">
       <c r="A256" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="16.5">
       <c r="A257" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="16.5">
       <c r="A258" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="16.5">
       <c r="A259" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="16.5">
       <c r="A260" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="16.5">
       <c r="A261" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="16.5">
       <c r="A262" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="16.5">
       <c r="A263" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="16.5">
       <c r="A264" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="16.5">
       <c r="A265" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="16.5">
       <c r="A266" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="16.5">
       <c r="A267" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="16.5">
       <c r="A268" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>683</v>
+        <v>603</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="16.5">
       <c r="A269" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="16.5">
       <c r="A270" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="16.5">
       <c r="A271" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="16.5">
       <c r="A272" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="16.5">
       <c r="A273" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="16.5">
       <c r="A274" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="16.5">
       <c r="A275" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="16.5">
       <c r="A276" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>684</v>
+        <v>604</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="16.5">
       <c r="A277" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="16.5">
       <c r="A278" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="16.5">
       <c r="A279" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="16.5">
       <c r="A280" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="16.5">
       <c r="A281" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="16.5">
       <c r="A282" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="16.5">
       <c r="A283" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="16.5">
       <c r="A284" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="16.5">
       <c r="A285" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="16.5">
       <c r="A286" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="16.5">
       <c r="A287" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="16.5">
       <c r="A288" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="16.5">
       <c r="A289" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="16.5">
       <c r="A290" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="16.5">
       <c r="A291" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="16.5">
       <c r="A292" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="16.5">
       <c r="A293" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="16.5">
       <c r="A294" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="16.5">
       <c r="A295" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="16.5">
       <c r="A296" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="16.5">
       <c r="A297" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>693</v>
+        <v>426</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="16.5">
       <c r="A298" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="16.5">
       <c r="A299" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="16.5">
       <c r="A300" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>690</v>
+        <v>610</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="16.5">
       <c r="A301" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="16.5">
       <c r="A302" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="16.5">
       <c r="A303" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="16.5">
       <c r="A304" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>685</v>
+        <v>605</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="16.5">
       <c r="A305" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>686</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="16.5">
       <c r="A306" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>687</v>
+        <v>607</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="16.5">
       <c r="A307" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>688</v>
+        <v>608</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="16.5">
       <c r="A308" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>689</v>
+        <v>609</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="16.5">
       <c r="A309" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="16.5">
       <c r="A310" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="16.5">
       <c r="A311" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="16.5">
       <c r="A312" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="16.5">
       <c r="A313" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="16.5">
       <c r="A314" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="16.5">
       <c r="A315" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="16.5">
       <c r="A316" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="16.5">
       <c r="A317" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>691</v>
+        <v>611</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="16.5">
       <c r="A318" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="16.5">
       <c r="A319" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="16.5">
       <c r="A320" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="16.5">
       <c r="A321" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="16.5">
       <c r="A322" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="16.5">
       <c r="A323" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="16.5">
       <c r="A324" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="16.5">
       <c r="A325" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="16.5">
       <c r="A326" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="16.5">
       <c r="A327" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="16.5">
       <c r="A328" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="16.5">
       <c r="A329" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="16.5">
       <c r="A330" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="16.5">
       <c r="A331" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="16.5">
       <c r="A332" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="16.5">
       <c r="A333" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="16.5">
       <c r="A334" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="16.5">
       <c r="A335" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="16.5">
       <c r="A336" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="16.5">
       <c r="A337" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="16.5">
       <c r="A338" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="16.5">
       <c r="A339" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="16.5">
       <c r="A340" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="16.5">
       <c r="A341" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="16.5">
       <c r="A342" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>692</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
